--- a/Report/211107 - Thesis graphs.xlsx
+++ b/Report/211107 - Thesis graphs.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Thesis\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\monobrainDNAme\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2B3BCB-859D-4D48-9A7A-96D28A09F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670C0D8-F6FE-4E4D-967F-6614DE6AC9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2115" windowWidth="20895" windowHeight="11835" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell sources" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>GEO Accession</t>
   </si>
@@ -54,24 +55,6 @@
     <t>GSE166844</t>
   </si>
   <si>
-    <t>Neutrophil</t>
-  </si>
-  <si>
-    <t>Monocyte</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Granulocytes</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Eosinophils</t>
-  </si>
-  <si>
     <t>GSE144804</t>
   </si>
   <si>
@@ -81,7 +64,28 @@
     <t>*Processed data was obtained directly from the authors</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Glioblastoma</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Microglia</t>
+  </si>
+  <si>
+    <t>Whole blood</t>
+  </si>
+  <si>
+    <t>Number of Samples (N =)</t>
+  </si>
+  <si>
+    <t>Glia</t>
+  </si>
+  <si>
+    <t>Neuron</t>
+  </si>
+  <si>
+    <t>GSE96612</t>
   </si>
   <si>
     <r>
@@ -93,7 +97,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Supplemental Table S1. </t>
+      <t xml:space="preserve">Supplemental Table 1. </t>
     </r>
     <r>
       <rPr>
@@ -103,53 +107,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cell types obtained from the Gene Expression Omnibus (GEO) accessions included in the study.</t>
+      <t xml:space="preserve">Cell types obtained from the Gene Expression Omnibus (GEO) accessions included in the study. </t>
     </r>
   </si>
   <si>
-    <t>Endothelial</t>
-  </si>
-  <si>
-    <t>Glioblastoma</t>
-  </si>
-  <si>
-    <t>Glioma</t>
-  </si>
-  <si>
-    <t>Microglia</t>
-  </si>
-  <si>
-    <t>B Cell</t>
-  </si>
-  <si>
-    <t>CD4+ T Cell</t>
-  </si>
-  <si>
-    <t>CD8+ T Cell</t>
-  </si>
-  <si>
-    <t>Natural Killer</t>
-  </si>
-  <si>
-    <t>Whole blood</t>
-  </si>
-  <si>
-    <t>Treg Cell</t>
-  </si>
-  <si>
-    <t>Glioma-related Immune Cell</t>
-  </si>
-  <si>
-    <t>Number of Samples (N =)</t>
-  </si>
-  <si>
-    <t>Glia</t>
-  </si>
-  <si>
-    <t>Neuron</t>
-  </si>
-  <si>
-    <t>GSE96612</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GSE49667</t>
+  </si>
+  <si>
+    <t>GSE49618</t>
+  </si>
+  <si>
+    <t>GSE98203</t>
+  </si>
+  <si>
+    <t>GSE66351</t>
+  </si>
+  <si>
+    <t>GSE164149</t>
+  </si>
+  <si>
+    <t>GSE70519</t>
+  </si>
+  <si>
+    <t>T Cell (CD4+ )</t>
+  </si>
+  <si>
+    <t>T Cell (CD8+)</t>
+  </si>
+  <si>
+    <t>Monocyte (CD14+)</t>
+  </si>
+  <si>
+    <t>Natural Killer (CD56+)</t>
+  </si>
+  <si>
+    <t>Glioma-related Immune Cell (CD45+)</t>
+  </si>
+  <si>
+    <t>Neutrophil (CD16+)</t>
+  </si>
+  <si>
+    <t>B Cell (CD19+)</t>
+  </si>
+  <si>
+    <t>Granulocytes (CD15+)</t>
+  </si>
+  <si>
+    <t>Eosinophils (CD11b+)</t>
+  </si>
+  <si>
+    <t>Treg Cell (CD25+)</t>
+  </si>
+  <si>
+    <t>Endothelial (CD31+)</t>
+  </si>
+  <si>
+    <t>GSE128654</t>
+  </si>
+  <si>
+    <t>Glioblastoma-related cells</t>
+  </si>
+  <si>
+    <t>GSE152035</t>
+  </si>
+  <si>
+    <t>GSE137845</t>
+  </si>
+  <si>
+    <t>Glioblastoma (IDH-WT)</t>
+  </si>
+  <si>
+    <t>Glioblastoma (IDH-Mut)</t>
   </si>
 </sst>
 </file>
@@ -229,17 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -301,17 +321,6 @@
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -342,15 +351,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -376,12 +376,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color auto="1"/>
       </left>
       <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -390,36 +425,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -434,26 +456,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,445 +797,1495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26085812-4962-4A3C-999B-9B4B5D8067C4}">
-  <dimension ref="B2:S14"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="4.7109375" customWidth="1"/>
+    <col min="3" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="21" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="2:21" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="2:21" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9">
+        <v>28</v>
+      </c>
+      <c r="H9" s="9">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9">
+        <v>29</v>
+      </c>
+      <c r="J9" s="9">
+        <v>29</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="2:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="2:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7">
+        <v>23</v>
+      </c>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>7</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>6</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7">
+        <v>20</v>
+      </c>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
+        <v>31</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9">
+        <v>31</v>
+      </c>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>5</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7">
+        <v>35</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9">
+        <v>54</v>
+      </c>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
+        <v>37</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="str">
+        <f>"Total = " &amp; SUM(C23:U23)</f>
+        <v>Total = 683</v>
+      </c>
+      <c r="C23" s="15">
+        <f>SUM(C5:C22)</f>
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:U23" si="0">SUM(D5:D22)</f>
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="3">
+        <f>SUM(L5:L22)</f>
+        <v>11</v>
+      </c>
+      <c r="M23" s="3">
+        <f>SUM(M5:M22)</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <f>SUM(N5:N22)</f>
+        <v>37</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23" si="1">SUM(O5:O22)</f>
+        <v>53</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="R23" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" ref="S23" si="2">SUM(S5:S22)</f>
+        <v>75</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" ref="T23" si="3">SUM(T5:T22)</f>
+        <v>74</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="20"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
-        <v>28</v>
-      </c>
-      <c r="F9" s="19">
-        <v>28</v>
-      </c>
-      <c r="G9" s="19">
-        <v>28</v>
-      </c>
-      <c r="H9" s="19">
-        <v>28</v>
-      </c>
-      <c r="I9" s="19">
-        <v>29</v>
-      </c>
-      <c r="J9" s="19">
-        <v>29</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="20"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16">
-        <v>22</v>
-      </c>
-      <c r="O10" s="16">
-        <v>23</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22">
-        <v>37</v>
-      </c>
-      <c r="S12" s="23"/>
-    </row>
-    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11">
-        <f>SUM(C5:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" ref="D13:S13" si="0">SUM(D5:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" ref="M13" si="1">SUM(M5:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" ref="N13" si="2">SUM(N5:N12)</f>
-        <v>22</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" ref="O13" si="3">SUM(O5:O12)</f>
-        <v>23</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="S13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="C3:S3"/>
+  <mergeCells count="2">
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE728A96-D8D7-45C6-9CF7-0406CA6A21BE}">
+  <dimension ref="B2:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+    </row>
+    <row r="4" spans="2:20" ht="129.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9">
+        <v>28</v>
+      </c>
+      <c r="H9" s="9">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9">
+        <v>29</v>
+      </c>
+      <c r="J9" s="9">
+        <v>29</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7">
+        <v>23</v>
+      </c>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>6</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7">
+        <v>20</v>
+      </c>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
+        <v>31</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9">
+        <v>31</v>
+      </c>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>5</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>35</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9">
+        <v>21</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9">
+        <v>54</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
+        <v>37</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="str">
+        <f>"Total = " &amp; SUM(C23:T23)</f>
+        <v>Total = 683</v>
+      </c>
+      <c r="C23" s="15">
+        <f>SUM(C5:C22)</f>
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:T23" si="0">SUM(D5:D22)</f>
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="3">
+        <f>SUM(L5:L22)</f>
+        <v>11</v>
+      </c>
+      <c r="M23" s="3">
+        <f>SUM(M5:M22)</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <f>SUM(N5:N22)</f>
+        <v>37</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23" si="1">SUM(O5:O22)</f>
+        <v>53</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/211107 - Thesis graphs.xlsx
+++ b/Report/211107 - Thesis graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\monobrainDNAme\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670C0D8-F6FE-4E4D-967F-6614DE6AC9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EE4BD-85FC-4CB9-AAD2-96231F762970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
+    <workbookView xWindow="2025" yWindow="1080" windowWidth="20895" windowHeight="11835" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell sources" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>GEO Accession</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Glioblastoma (IDH-Mut)</t>
+  </si>
+  <si>
+    <t>GSE61195</t>
   </si>
 </sst>
 </file>
@@ -456,12 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,6 +477,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -797,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26085812-4962-4A3C-999B-9B4B5D8067C4}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,88 +839,88 @@
       <c r="U2" s="22"/>
     </row>
     <row r="3" spans="2:21" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="2:21" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1245,311 +1248,339 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9">
-        <v>31</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9">
-        <v>31</v>
-      </c>
-      <c r="U15" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7">
-        <v>5</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9">
+        <v>31</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9">
+        <v>31</v>
+      </c>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>5</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7">
-        <v>35</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7">
+        <v>35</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9">
         <v>21</v>
       </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9">
         <v>54</v>
       </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11">
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
         <v>37</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="str">
-        <f>"Total = " &amp; SUM(C23:U23)</f>
-        <v>Total = 683</v>
-      </c>
-      <c r="C23" s="15">
-        <f>SUM(C5:C22)</f>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="str">
+        <f>"Total = " &amp; SUM(C24:U24)</f>
+        <v>Total = 697</v>
+      </c>
+      <c r="C24" s="13">
+        <f>SUM(C5:C23)</f>
         <v>21</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="D23:U23" si="0">SUM(D5:D22)</f>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:U24" si="0">SUM(D5:D23)</f>
         <v>21</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G23" s="3">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K24" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L23" s="3">
-        <f>SUM(L5:L22)</f>
+      <c r="L24" s="3">
+        <f>SUM(L5:L23)</f>
         <v>11</v>
       </c>
-      <c r="M23" s="3">
-        <f>SUM(M5:M22)</f>
+      <c r="M24" s="3">
+        <f>SUM(M5:M23)</f>
         <v>3</v>
       </c>
-      <c r="N23" s="3">
-        <f>SUM(N5:N22)</f>
+      <c r="N24" s="3">
+        <f>SUM(N5:N23)</f>
         <v>37</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" ref="O23" si="1">SUM(O5:O22)</f>
+      <c r="O24" s="3">
+        <f t="shared" ref="O24" si="1">SUM(O5:O23)</f>
         <v>53</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P24" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q24" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R24" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="S23" s="3">
-        <f t="shared" ref="S23" si="2">SUM(S5:S22)</f>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24" si="2">SUM(S5:S23)</f>
         <v>75</v>
       </c>
-      <c r="T23" s="3">
-        <f t="shared" ref="T23" si="3">SUM(T5:T22)</f>
+      <c r="T24" s="3">
+        <f t="shared" ref="T24" si="3">SUM(T5:T23)</f>
         <v>74</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U24" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P29" t="s">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1597,84 +1628,84 @@
       <c r="T2" s="22"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="2:20" ht="129.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2128,7 +2159,7 @@
       <c r="T19" s="9"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2149,7 +2180,7 @@
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="8"/>
@@ -2199,11 +2230,11 @@
       <c r="T22" s="11"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="12" t="str">
         <f>"Total = " &amp; SUM(C23:T23)</f>
         <v>Total = 683</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <f>SUM(C5:C22)</f>
         <v>21</v>
       </c>
